--- a/biology/Médecine/Mancozèbe/Mancozèbe.xlsx
+++ b/biology/Médecine/Mancozèbe/Mancozèbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mancoz%C3%A8be</t>
+          <t>Mancozèbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Le mancozèbe est un fongicide de contact[1] appartenant à la famille des carbamates et, plus précisément, un dithiocarbamate, non inhibiteur des cholinestérases[2].
-Il s'agit de la combinaison de 2 autres dithiocarbamates : l'éthylène-bis-dithiocarbamate de manganèse ou manèbe et l'éthylène-bis-dithiocarbamate de zinc ou zinèbe[3].
-L'Autorité européenne de sécurité des aliments (EFSA) a classé le mancozèbe comme toxique pour la reproduction de catégorie 1B et comme perturbateur endocrinien. Les AMM contenant du mancozèbe devront être retirées au plus tard le 4 juillet 2021. Des délais de grâce sont accordés jusqu'au 4 janvier 2022 [4],[5] .
+ Le mancozèbe est un fongicide de contact appartenant à la famille des carbamates et, plus précisément, un dithiocarbamate, non inhibiteur des cholinestérases.
+Il s'agit de la combinaison de 2 autres dithiocarbamates : l'éthylène-bis-dithiocarbamate de manganèse ou manèbe et l'éthylène-bis-dithiocarbamate de zinc ou zinèbe.
+L'Autorité européenne de sécurité des aliments (EFSA) a classé le mancozèbe comme toxique pour la reproduction de catégorie 1B et comme perturbateur endocrinien. Les AMM contenant du mancozèbe devront être retirées au plus tard le 4 juillet 2021. Des délais de grâce sont accordés jusqu'au 4 janvier 2022 , .
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mancoz%C3%A8be</t>
+          <t>Mancozèbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Effet toxique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets toxiques du mancozèbe à court et à long terme chez l’animal, après administration répétée dans l’alimentation, sont dus à son métabolite principal, l’éthylènethiourée (ETU) classé dans la liste des cancérogènes du groupe 3 du Centre international de recherche sur le cancer (CIRC)  c'est-à-dire non classable[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets toxiques du mancozèbe à court et à long terme chez l’animal, après administration répétée dans l’alimentation, sont dus à son métabolite principal, l’éthylènethiourée (ETU) classé dans la liste des cancérogènes du groupe 3 du Centre international de recherche sur le cancer (CIRC)  c'est-à-dire non classable.
 </t>
         </is>
       </c>
